--- a/Maps/1Fmap.xlsx
+++ b/Maps/1Fmap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masaki\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gakuen_app\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="0" windowWidth="24360" windowHeight="11480"/>
+    <workbookView xWindow="2475" yWindow="0" windowWidth="24360" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2569,34 +2569,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AY21:AY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="21" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY21" s="1"/>
     </row>
-    <row r="22" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY22" s="1"/>
     </row>
-    <row r="23" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY23" s="1"/>
     </row>
-    <row r="24" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY24" s="1"/>
     </row>
-    <row r="25" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY25" s="1"/>
     </row>
-    <row r="26" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY26" s="1"/>
     </row>
-    <row r="27" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY27" s="1"/>
     </row>
-    <row r="28" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="51:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY28" s="1"/>
     </row>
   </sheetData>
